--- a/DCISM_WBRMSystem/file/temp_inventory/LB 483 (77 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 483 (77 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 483</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Aircon</t>
@@ -29953,7 +29953,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3Ot9zhbSk8Td5rVqXRQ9vUMVgYfL3xSGUAujl05XjQ/gGrf6PVYjLBd1dYMe0a0HVoHnLSdE+yyAKz8GKFjS2w==" saltValue="ifHEzhxUt9Xq+rFaCypFOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xnFwS14ASa9L+iWsXjZNGNbff/lgDPvH1Fp6VQSJPf5UB9KjsEVB+rDFRwRYxOlVuYDZh9pNbJ94yItJSOkEOw==" saltValue="QZ0USfuvSuHvMikKIk2QdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
